--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_2_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_2_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.367693878570865, 15.680612210815411]</t>
+          <t>[-0.5148041561478287, 15.827722488392375]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.06097573542118262</v>
+        <v>0.06559228395184658</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06097573542118262</v>
+        <v>0.06559228395184658</v>
       </c>
       <c r="P2" t="n">
         <v>-1.295631805084079</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.868000500574466, 0.2767368904063088]</t>
+          <t>[-2.8554215510105427, 0.2641579408423853]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1039449285559035</v>
+        <v>0.1012654040260152</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1039449285559035</v>
+        <v>0.1012654040260152</v>
       </c>
       <c r="T2" t="n">
         <v>10.47786218070243</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.077998274952738, 14.877726086452132]</t>
+          <t>[6.083380523092599, 14.87234383831227]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.806232805212638e-05</v>
+        <v>1.771578986708988e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.806232805212638e-05</v>
+        <v>1.771578986708988e-05</v>
       </c>
       <c r="X2" t="n">
         <v>4.621081081081094</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9870270270270316</v>
+        <v>-0.9421621621621661</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.22918918918922</v>
+        <v>10.18432432432435</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.39042549392758374, 14.361607210077203]</t>
+          <t>[0.4179216053939001, 14.334111098610887]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.03896515205811535</v>
+        <v>0.0382343713404969</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03896515205811535</v>
+        <v>0.0382343713404969</v>
       </c>
       <c r="P3" t="n">
         <v>-0.8805264694746171</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-1.8994213841523875, 0.13836844520315328]</t>
+          <t>[-2.226474072814388, 0.4654211338651537]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.08859137995612953</v>
+        <v>0.1942941552660895</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08859137995612953</v>
+        <v>0.1942941552660895</v>
       </c>
       <c r="T3" t="n">
         <v>8.806278981284729</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.141211991336842, 12.471345971232616]</t>
+          <t>[5.137308899205896, 12.475249063363561]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.567170241001392e-05</v>
+        <v>1.594055976639197e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.567170241001392e-05</v>
+        <v>1.594055976639197e-05</v>
       </c>
       <c r="X3" t="n">
         <v>3.140540540540549</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.4935135135135145</v>
+        <v>-1.660000000000004</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.774594594594612</v>
+        <v>7.941081081081101</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.743356763955715, 13.151069766665612]</t>
+          <t>[-1.7873557482123257, 13.195068750922223]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1299288174526407</v>
+        <v>0.1321413752887302</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1299288174526407</v>
+        <v>0.1321413752887302</v>
       </c>
       <c r="P4" t="n">
         <v>-0.4402632347373086</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.0818426431611585, 2.2013161736865414]</t>
+          <t>[-2.6352899336418893, 1.7547634641672722]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.7386693409476206</v>
+        <v>0.6881446754024823</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7386693409476206</v>
+        <v>0.6881446754024823</v>
       </c>
       <c r="T4" t="n">
         <v>8.827471819432763</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.762750704347133, 12.892192934518391]</t>
+          <t>[4.76152282587841, 12.893420812987115]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.1446248428364e-05</v>
+        <v>7.174990175440321e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1446248428364e-05</v>
+        <v>7.174990175440321e-05</v>
       </c>
       <c r="X4" t="n">
         <v>1.570270270270278</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.85135135135137</v>
+        <v>-6.258648648648665</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.99189189189193</v>
+        <v>9.399189189189222</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.2002448135768944, 12.056633620412148]</t>
+          <t>[-2.1779362871161165, 12.03432509395137]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1706332846560692</v>
+        <v>0.1693226541559589</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1706332846560692</v>
+        <v>0.1693226541559589</v>
       </c>
       <c r="P5" t="n">
         <v>-0.1886842434588463</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.0629742188152735, 2.685605731897581]</t>
+          <t>[-3.25165846227412, 2.8742899753564273]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8954021976218776</v>
+        <v>0.9018107666253836</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8954021976218776</v>
+        <v>0.9018107666253836</v>
       </c>
       <c r="T5" t="n">
         <v>8.50944622971598</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.367306481239625, 12.651585978192335]</t>
+          <t>[4.3662505235833375, 12.652641935848623]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0.0001515671430327714</v>
+        <v>0.0001520715506992953</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0001515671430327714</v>
+        <v>0.0001520715506992953</v>
       </c>
       <c r="X5" t="n">
         <v>0.6729729729729748</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.578648648648675</v>
+        <v>-10.25162162162165</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.92459459459463</v>
+        <v>11.5975675675676</v>
       </c>
     </row>
     <row r="6">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.9694461864408925, 12.773126524024823]</t>
+          <t>[-0.9514345279538112, 12.755114865537742]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09049511548336042</v>
+        <v>0.08967771133952884</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09049511548336042</v>
+        <v>0.08967771133952884</v>
       </c>
       <c r="P6" t="n">
         <v>0.4717106086471148</v>
@@ -971,14 +971,14 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[4.1708186129520834, 11.491427722177423]</t>
+          <t>[4.1719465609477995, 11.490299774181707]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.797355920697747e-05</v>
+        <v>8.760095915838484e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>8.797355920697747e-05</v>
+        <v>8.760095915838484e-05</v>
       </c>
       <c r="X6" t="n">
         <v>20.72756756756763</v>
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.34569069852087253, 14.894846548443159]</t>
+          <t>[-0.6998007864584235, 15.24895663638071]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.06085636149689067</v>
+        <v>0.0727663585525693</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06085636149689067</v>
+        <v>0.0727663585525693</v>
       </c>
       <c r="P7" t="n">
         <v>0.8365001460008861</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.257921446724195, 3.930921738725967]</t>
+          <t>[-1.7987897876410024, 3.4717900796427745]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5888109816928855</v>
+        <v>0.5258550370535895</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5888109816928855</v>
+        <v>0.5258550370535895</v>
       </c>
       <c r="T7" t="n">
         <v>10.00718349591115</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.908689938865517, 14.105677052956775]</t>
+          <t>[5.907033157741401, 14.107333834080892]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.208979598654736e-05</v>
+        <v>1.216975107842799e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.208979598654736e-05</v>
+        <v>1.216975107842799e-05</v>
       </c>
       <c r="X7" t="n">
         <v>19.42648648648654</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.389729729729757</v>
+        <v>10.02729729729733</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.46324324324333</v>
+        <v>28.82567567567576</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.7730993313947714, 16.2502342896163]</t>
+          <t>[-0.4972129185606633, 15.974347876782193]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.07370135511203091</v>
+        <v>0.06486687742474695</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07370135511203091</v>
+        <v>0.06486687742474695</v>
       </c>
       <c r="P8" t="n">
         <v>0.9748685912040385</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.0880791372793501, 3.037816319687427]</t>
+          <t>[-0.8993948938205039, 2.849132076228581]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.3462896673092706</v>
+        <v>0.3004153987006386</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3462896673092706</v>
+        <v>0.3004153987006386</v>
       </c>
       <c r="T8" t="n">
         <v>10.46875254964579</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.098628854733594, 14.83887624455799]</t>
+          <t>[6.100157424320511, 14.837347674971074]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.64442966310574e-05</v>
+        <v>1.635287825529907e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64442966310574e-05</v>
+        <v>1.635287825529907e-05</v>
       </c>
       <c r="X8" t="n">
         <v>18.93297297297303</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.57513513513517</v>
+        <v>12.24810810810814</v>
       </c>
       <c r="Z8" t="n">
-        <v>26.2908108108109</v>
+        <v>25.61783783783792</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.5086588424495826, 13.734404296161323]</t>
+          <t>[0.6765520758065637, 13.566511062804341]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.03540326896255386</v>
+        <v>0.03110008293201472</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03540326896255386</v>
+        <v>0.03110008293201472</v>
       </c>
       <c r="P9" t="n">
         <v>1.792500312859041</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.4465527095192696, 3.138447916198813]</t>
+          <t>[0.45913165908319353, 3.125868966634889]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.01018821304232875</v>
+        <v>0.009545200285903555</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01018821304232875</v>
+        <v>0.009545200285903555</v>
       </c>
       <c r="T9" t="n">
         <v>8.277762900720253</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[4.5008508303095045, 12.054674971131002]</t>
+          <t>[4.502938534072348, 12.052587267368159]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.278819120364432e-05</v>
+        <v>6.229646850752779e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>6.278819120364432e-05</v>
+        <v>6.229646850752779e-05</v>
       </c>
       <c r="X9" t="n">
         <v>16.0167567567568</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.21621621621625</v>
+        <v>11.26108108108111</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.81729729729736</v>
+        <v>20.77243243243249</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.9873351748007737, 15.523800193041122]</t>
+          <t>[-0.8483576963115924, 15.384822714551941]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.08295967579039387</v>
+        <v>0.07799334510095113</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08295967579039387</v>
+        <v>0.07799334510095113</v>
       </c>
       <c r="P10" t="n">
         <v>2.333395144107734</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.7736053981812709, 5.440395686396739]</t>
+          <t>[-0.7107106503616549, 5.377500938577123]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1373691287179295</v>
+        <v>0.129624212487188</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1373691287179295</v>
+        <v>0.129624212487188</v>
       </c>
       <c r="T10" t="n">
         <v>9.52441560550365</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.377006292780063, 13.671824918227237]</t>
+          <t>[5.37395765650542, 13.67487355450188]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.166413856647843e-05</v>
+        <v>3.201733191660061e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166413856647843e-05</v>
+        <v>3.201733191660061e-05</v>
       </c>
       <c r="X10" t="n">
         <v>14.08756756756761</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.005945945945955</v>
+        <v>3.230270270270282</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.16918918918926</v>
+        <v>24.94486486486494</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.1019857085656053, 14.478233976139418]</t>
+          <t>[-0.4095595556362088, 14.785807823210021]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05315369413342319</v>
+        <v>0.06311200167328579</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05315369413342319</v>
+        <v>0.06311200167328579</v>
       </c>
       <c r="P11" t="n">
         <v>2.345974093671658</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.6100790538502694, 4.081869133493045]</t>
+          <t>[-0.754736973835386, 5.446685161178701]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.009198112136880265</v>
+        <v>0.1345424576750227</v>
       </c>
       <c r="S11" t="n">
-        <v>0.009198112136880265</v>
+        <v>0.1345424576750227</v>
       </c>
       <c r="T11" t="n">
         <v>8.824991472019583</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[4.925489440657164, 12.724493503382003]</t>
+          <t>[4.928353271991078, 12.721629672048088]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.941589278921853e-05</v>
+        <v>3.898881714947677e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.941589278921853e-05</v>
+        <v>3.898881714947677e-05</v>
       </c>
       <c r="X11" t="n">
         <v>14.52520520520532</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.121121121121181</v>
+        <v>3.086026026026049</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.92928928928946</v>
+        <v>25.96438438438459</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.09932219391236252, 14.4274950377649]</t>
+          <t>[-0.033234634707005384, 14.361407478559542]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.05308077160371316</v>
+        <v>0.05102255894860797</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05308077160371316</v>
+        <v>0.05102255894860797</v>
       </c>
       <c r="P12" t="n">
         <v>2.673026782333658</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.0503422885875793, 4.295711276079738]</t>
+          <t>[1.1258159859711183, 4.2202375786961985]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.001802514561454194</v>
+        <v>0.001126882377024518</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001802514561454194</v>
+        <v>0.001126882377024518</v>
       </c>
       <c r="T12" t="n">
         <v>8.910600304626676</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.030277624845925, 12.790922984407427]</t>
+          <t>[5.030744690789801, 12.790455918463552]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.168872337355744e-05</v>
+        <v>3.163116340743066e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>3.168872337355744e-05</v>
+        <v>3.163116340743066e-05</v>
       </c>
       <c r="X12" t="n">
         <v>13.31863863863874</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.332212212212268</v>
+        <v>7.610650650650712</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.30506506506521</v>
+        <v>19.02662662662677</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.26690217088411394, 13.715356674231424]</t>
+          <t>[0.5588461824020783, 13.42341266271346]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.04191941155661949</v>
+        <v>0.03381849733078579</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04191941155661949</v>
+        <v>0.03381849733078579</v>
       </c>
       <c r="P13" t="n">
         <v>3.025237370123504</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.7170266154755027, 4.333448124771506]</t>
+          <t>[1.6792897667837328, 4.371184973463276]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.849364057300185e-05</v>
+        <v>4.360674092085404e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>2.849364057300185e-05</v>
+        <v>4.360674092085404e-05</v>
       </c>
       <c r="T13" t="n">
         <v>8.842107133824195</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[4.96328923732811, 12.72092503032028]</t>
+          <t>[4.961788998384568, 12.722425269263821]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.537903058714598e-05</v>
+        <v>3.558425388350273e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>3.537903058714598e-05</v>
+        <v>3.558425388350273e-05</v>
       </c>
       <c r="X13" t="n">
         <v>12.01925925925936</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.192992992993051</v>
+        <v>7.053773773773829</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.84552552552566</v>
+        <v>16.98474474474488</v>
       </c>
     </row>
     <row r="14">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.5980800778306143, 13.697784534125034]</t>
+          <t>[0.13738888573312735, 14.158475726222521]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.03313404826483546</v>
+        <v>0.04585542571709822</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03313404826483546</v>
+        <v>0.04585542571709822</v>
       </c>
       <c r="P14" t="n">
         <v>-2.918316298830158</v>
@@ -1659,14 +1659,14 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.046003341098096, 12.799194924664576]</t>
+          <t>[5.04691662613101, 12.798281639631663]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.060228701734502e-05</v>
+        <v>3.049324992820956e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>3.060228701734502e-05</v>
+        <v>3.049324992820956e-05</v>
       </c>
       <c r="X14" t="n">
         <v>10.76628628628637</v>
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.48149250024339274, 14.661282648991174]</t>
+          <t>[-0.40094831572319656, 14.580738464470977]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.06575652597516801</v>
+        <v>0.06300995703077539</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06575652597516801</v>
+        <v>0.06300995703077539</v>
       </c>
       <c r="P15" t="n">
         <v>-2.578684660604234</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-4.1510533560946214, -1.0063159651138474]</t>
+          <t>[-4.163632305658545, -0.9937370155499234]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.001879964002781342</v>
+        <v>0.002026225476385868</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001879964002781342</v>
+        <v>0.002026225476385868</v>
       </c>
       <c r="T15" t="n">
         <v>8.802784575526116</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[4.9041915872085795, 12.701377563843653]</t>
+          <t>[4.907243905142381, 12.698325245909853]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.077246224953868e-05</v>
+        <v>4.03030264124471e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>4.077246224953868e-05</v>
+        <v>4.03030264124471e-05</v>
       </c>
       <c r="X15" t="n">
         <v>9.513313313313388</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.71251251251254</v>
+        <v>3.66610610610613</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.31411411411424</v>
+        <v>15.36052052052064</v>
       </c>
     </row>
     <row r="16">
@@ -1803,51 +1803,51 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-1.2863093767884433, 15.522281490801982]</t>
+          <t>[-0.9148310735711522, 15.15080318758469]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.094932578719918</v>
+        <v>0.08104836228775358</v>
       </c>
       <c r="O16" t="n">
-        <v>0.094932578719918</v>
+        <v>0.08104836228775358</v>
       </c>
       <c r="P16" t="n">
         <v>-2.553526761476388</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-4.75484293516293, -0.3522105877898465]</t>
+          <t>[-4.666790288215469, -0.44026323473730766]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.02398544927323165</v>
+        <v>0.0189789857997118</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02398544927323165</v>
+        <v>0.0189789857997118</v>
       </c>
       <c r="T16" t="n">
         <v>9.925673930431657</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[5.645031406081035, 14.206316454782279]</t>
+          <t>[5.646083839411561, 14.205264021451754]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.734635445911238e-05</v>
+        <v>2.724371593543218e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>2.734635445911238e-05</v>
+        <v>2.724371593543218e-05</v>
       </c>
       <c r="X16" t="n">
         <v>9.420500500500575</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.299379379379388</v>
+        <v>1.624224224224234</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.54162162162176</v>
+        <v>17.21677677677692</v>
       </c>
     </row>
     <row r="17">
@@ -1889,51 +1889,51 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-0.34237733954112315, 14.857620189497514]</t>
+          <t>[-0.32203762813198544, 14.837280478088376]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.06077451617078333</v>
+        <v>0.06011214003125698</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06077451617078333</v>
+        <v>0.06011214003125698</v>
       </c>
       <c r="P17" t="n">
         <v>-2.503210963220696</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-4.2013691543503136, -0.8050527720910776]</t>
+          <t>[-4.302000750861698, -0.7044211755796934]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.004776723158561813</v>
+        <v>0.007446785763799646</v>
       </c>
       <c r="S17" t="n">
-        <v>0.004776723158561813</v>
+        <v>0.007446785763799646</v>
       </c>
       <c r="T17" t="n">
         <v>8.87891901071449</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[4.982764173966888, 12.775073847462092]</t>
+          <t>[4.985857548427225, 12.771980473001756]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.554084707824146e-05</v>
+        <v>3.512096728908176e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>3.554084707824146e-05</v>
+        <v>3.512096728908176e-05</v>
       </c>
       <c r="X17" t="n">
         <v>9.234874874874947</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.970010010010033</v>
+        <v>2.598758758758781</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.49973973973986</v>
+        <v>15.87099099099112</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_2_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_2_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.5148041561478287, 15.827722488392375]</t>
+          <t>[-0.36248753072131557, 15.675405862965862]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.06559228395184658</v>
+        <v>0.06081457932432621</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06559228395184658</v>
+        <v>0.06081457932432621</v>
       </c>
       <c r="P2" t="n">
         <v>-1.295631805084079</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.8554215510105427, 0.2641579408423853]</t>
+          <t>[-2.8051057527548506, 0.2138421425866932]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1012654040260152</v>
+        <v>0.09070616977169199</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1012654040260152</v>
+        <v>0.09070616977169199</v>
       </c>
       <c r="T2" t="n">
         <v>10.47786218070243</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.083380523092599, 14.87234383831227]</t>
+          <t>[6.0768211109238575, 14.878903250481011]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.771578986708988e-05</v>
+        <v>1.813889005508607e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.771578986708988e-05</v>
+        <v>1.813889005508607e-05</v>
       </c>
       <c r="X2" t="n">
         <v>4.621081081081094</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9421621621621661</v>
+        <v>-0.7627027027027058</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.18432432432435</v>
+        <v>10.00486486486489</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.4179216053939001, 14.334111098610887]</t>
+          <t>[0.5035687905067823, 14.248463913498004]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0382343713404969</v>
+        <v>0.03599943771883263</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0382343713404969</v>
+        <v>0.03599943771883263</v>
       </c>
       <c r="P3" t="n">
         <v>-0.8805264694746171</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.226474072814388, 0.4654211338651537]</t>
+          <t>[-2.1006845771751568, 0.33963163822592257]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1942941552660895</v>
+        <v>0.1530302966325141</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1942941552660895</v>
+        <v>0.1530302966325141</v>
       </c>
       <c r="T3" t="n">
         <v>8.806278981284729</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.137308899205896, 12.475249063363561]</t>
+          <t>[5.1397445238865185, 12.47281343868294]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.594055976639197e-05</v>
+        <v>1.577232538085838e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.594055976639197e-05</v>
+        <v>1.577232538085838e-05</v>
       </c>
       <c r="X3" t="n">
         <v>3.140540540540549</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1.660000000000004</v>
+        <v>-1.211351351351353</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.941081081081101</v>
+        <v>7.492432432432451</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.7873557482123257, 13.195068750922223]</t>
+          <t>[-1.8797044157795444, 13.287417418489442]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1321413752887302</v>
+        <v>0.1367969058455691</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1321413752887302</v>
+        <v>0.1367969058455691</v>
       </c>
       <c r="P4" t="n">
         <v>-0.4402632347373086</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.6352899336418893, 1.7547634641672722]</t>
+          <t>[-3.213921613582351, 2.333395144107734]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.6881446754024823</v>
+        <v>0.7506761372224926</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6881446754024823</v>
+        <v>0.7506761372224926</v>
       </c>
       <c r="T4" t="n">
         <v>8.827471819432763</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.76152282587841, 12.893420812987115]</t>
+          <t>[4.762676400937814, 12.892267237927712]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.174990175440321e-05</v>
+        <v>7.146459305662489e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>7.174990175440321e-05</v>
+        <v>7.146459305662489e-05</v>
       </c>
       <c r="X4" t="n">
         <v>1.570270270270278</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.258648648648665</v>
+        <v>-8.322432432432453</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.399189189189222</v>
+        <v>11.46297297297301</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.1779362871161165, 12.03432509395137]</t>
+          <t>[-2.4239886539255924, 12.280377460760846]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1693226541559589</v>
+        <v>0.1837483774030093</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1693226541559589</v>
+        <v>0.1837483774030093</v>
       </c>
       <c r="P5" t="n">
         <v>-0.1886842434588463</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.25165846227412, 2.8742899753564273]</t>
+          <t>[-2.7988162779728882, 2.4214477910551957]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9018107666253836</v>
+        <v>0.8848891126036755</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9018107666253836</v>
+        <v>0.8848891126036755</v>
       </c>
       <c r="T5" t="n">
         <v>8.50944622971598</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.3662505235833375, 12.652641935848623]</t>
+          <t>[4.365975862679287, 12.652916596752673]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0.0001520715506992953</v>
+        <v>0.0001522029752014653</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0001520715506992953</v>
+        <v>0.0001522029752014653</v>
       </c>
       <c r="X5" t="n">
         <v>0.6729729729729748</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.25162162162165</v>
+        <v>-8.636486486486509</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.5975675675676</v>
+        <v>9.982432432432459</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.9514345279538112, 12.755114865537742]</t>
+          <t>[-0.8043585693650783, 12.608038906949009]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.08967771133952884</v>
+        <v>0.08307679587282424</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08967771133952884</v>
+        <v>0.08307679587282424</v>
       </c>
       <c r="P6" t="n">
         <v>0.4717106086471148</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.471737098979002, 2.4151583162732315]</t>
+          <t>[-1.459158149415079, 2.4025793667093085]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.627314973421361</v>
+        <v>0.6250795920808692</v>
       </c>
       <c r="S6" t="n">
-        <v>0.627314973421361</v>
+        <v>0.6250795920808692</v>
       </c>
       <c r="T6" t="n">
         <v>7.831123167564754</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[4.1719465609477995, 11.490299774181707]</t>
+          <t>[4.175572199624131, 11.486674135505377]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.760095915838484e-05</v>
+        <v>8.641215413751624e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>8.760095915838484e-05</v>
+        <v>8.641215413751624e-05</v>
       </c>
       <c r="X6" t="n">
         <v>20.72756756756763</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.79594594594599</v>
+        <v>13.84081081081086</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.65918918918927</v>
+        <v>27.6143243243244</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.6998007864584235, 15.24895663638071]</t>
+          <t>[-0.4905277464806943, 15.03968359640298]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0727663585525693</v>
+        <v>0.06563913997539728</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0727663585525693</v>
+        <v>0.06563913997539728</v>
       </c>
       <c r="P7" t="n">
         <v>0.8365001460008861</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.7987897876410024, 3.4717900796427745]</t>
+          <t>[-1.9371582328441566, 3.6101585248459287]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5258550370535895</v>
+        <v>0.5466200665214309</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5258550370535895</v>
+        <v>0.5466200665214309</v>
       </c>
       <c r="T7" t="n">
         <v>10.00718349591115</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.907033157741401, 14.107333834080892]</t>
+          <t>[5.9059689456224955, 14.108398046199797]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.216975107842799e-05</v>
+        <v>1.222134955591869e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.216975107842799e-05</v>
+        <v>1.222134955591869e-05</v>
       </c>
       <c r="X7" t="n">
         <v>19.42648648648654</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.02729729729733</v>
+        <v>9.533783783783811</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.82567567567576</v>
+        <v>29.31918918918927</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.4972129185606633, 15.974347876782193]</t>
+          <t>[-0.597614431058215, 16.074749389279745]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06486687742474695</v>
+        <v>0.06803824291835525</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06486687742474695</v>
+        <v>0.06803824291835525</v>
       </c>
       <c r="P8" t="n">
         <v>0.9748685912040385</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.8993948938205039, 2.849132076228581]</t>
+          <t>[-0.9622896416401199, 2.912026824048197]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.3004153987006386</v>
+        <v>0.3161970110431811</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3004153987006386</v>
+        <v>0.3161970110431811</v>
       </c>
       <c r="T8" t="n">
         <v>10.46875254964579</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.100157424320511, 14.837347674971074]</t>
+          <t>[6.103351803200947, 14.834153296090637]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.635287825529907e-05</v>
+        <v>1.616324211917153e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.635287825529907e-05</v>
+        <v>1.616324211917153e-05</v>
       </c>
       <c r="X8" t="n">
         <v>18.93297297297303</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.24810810810814</v>
+        <v>12.02378378378382</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.61783783783792</v>
+        <v>25.84216216216225</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.6765520758065637, 13.566511062804341]</t>
+          <t>[0.3281445929691085, 13.914918545641797]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.03110008293201472</v>
+        <v>0.0403253291049146</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03110008293201472</v>
+        <v>0.0403253291049146</v>
       </c>
       <c r="P9" t="n">
         <v>1.792500312859041</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.45913165908319353, 3.125868966634889]</t>
+          <t>[0.4465527095192696, 3.138447916198813]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.009545200285903555</v>
+        <v>0.01018821304232875</v>
       </c>
       <c r="S9" t="n">
-        <v>0.009545200285903555</v>
+        <v>0.01018821304232875</v>
       </c>
       <c r="T9" t="n">
         <v>8.277762900720253</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[4.502938534072348, 12.052587267368159]</t>
+          <t>[4.502953632382196, 12.05257216905831]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.229646850752779e-05</v>
+        <v>6.229292413917342e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>6.229646850752779e-05</v>
+        <v>6.229292413917342e-05</v>
       </c>
       <c r="X9" t="n">
         <v>16.0167567567568</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.26108108108111</v>
+        <v>11.21621621621625</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.77243243243249</v>
+        <v>20.81729729729736</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.8483576963115924, 15.384822714551941]</t>
+          <t>[-0.6494174335673879, 15.185882451807736]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07799334510095113</v>
+        <v>0.07104781345622935</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07799334510095113</v>
+        <v>0.07104781345622935</v>
       </c>
       <c r="P10" t="n">
         <v>2.333395144107734</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.7107106503616549, 5.377500938577123]</t>
+          <t>[0.30818426431611545, 4.358606023899353]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.129624212487188</v>
+        <v>0.02489921389453453</v>
       </c>
       <c r="S10" t="n">
-        <v>0.129624212487188</v>
+        <v>0.02489921389453453</v>
       </c>
       <c r="T10" t="n">
         <v>9.52441560550365</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.37395765650542, 13.67487355450188]</t>
+          <t>[5.377097771776976, 13.671733439230325]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.201733191660061e-05</v>
+        <v>3.165359178636251e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.201733191660061e-05</v>
+        <v>3.165359178636251e-05</v>
       </c>
       <c r="X10" t="n">
         <v>14.08756756756761</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.230270270270282</v>
+        <v>6.864324324324345</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.94486486486494</v>
+        <v>21.31081081081087</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.4095595556362088, 14.785807823210021]</t>
+          <t>[-0.15615423308238796, 14.5324025006562]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.06311200167328579</v>
+        <v>0.0548599570180206</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06311200167328579</v>
+        <v>0.0548599570180206</v>
       </c>
       <c r="P11" t="n">
         <v>2.345974093671658</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.754736973835386, 5.446685161178701]</t>
+          <t>[0.16981581911296262, 4.522132368230352]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1345424576750227</v>
+        <v>0.03522266475290015</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1345424576750227</v>
+        <v>0.03522266475290015</v>
       </c>
       <c r="T11" t="n">
         <v>8.824991472019583</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[4.928353271991078, 12.721629672048088]</t>
+          <t>[4.93028303488169, 12.719699909157477]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.898881714947677e-05</v>
+        <v>3.870324874655218e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.898881714947677e-05</v>
+        <v>3.870324874655218e-05</v>
       </c>
       <c r="X11" t="n">
         <v>14.52520520520532</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.086026026026049</v>
+        <v>6.496896896896951</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.96438438438459</v>
+        <v>22.55351351351369</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.033234634707005384, 14.361407478559542]</t>
+          <t>[-0.17644573154015397, 14.50461857539269]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.05102255894860797</v>
+        <v>0.0555234017337185</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05102255894860797</v>
+        <v>0.0555234017337185</v>
       </c>
       <c r="P12" t="n">
         <v>2.673026782333658</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.1258159859711183, 4.2202375786961985]</t>
+          <t>[1.1006580868432714, 4.2453954778240455]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.001126882377024518</v>
+        <v>0.001326070636130439</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001126882377024518</v>
+        <v>0.001326070636130439</v>
       </c>
       <c r="T12" t="n">
         <v>8.910600304626676</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.030744690789801, 12.790455918463552]</t>
+          <t>[5.028665687207891, 12.792534922045462]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.163116340743066e-05</v>
+        <v>3.18880578111802e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>3.163116340743066e-05</v>
+        <v>3.18880578111802e-05</v>
       </c>
       <c r="X12" t="n">
         <v>13.31863863863874</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.610650650650712</v>
+        <v>7.517837837837894</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.02662662662677</v>
+        <v>19.11943943943959</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.5588461824020783, 13.42341266271346]</t>
+          <t>[0.31759542336599367, 13.664663421749545]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.03381849733078579</v>
+        <v>0.04045531950013914</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03381849733078579</v>
+        <v>0.04045531950013914</v>
       </c>
       <c r="P13" t="n">
         <v>3.025237370123504</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.6792897667837328, 4.371184973463276]</t>
+          <t>[1.6918687163476567, 4.358606023899352]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.360674092085404e-05</v>
+        <v>3.795600072642458e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>4.360674092085404e-05</v>
+        <v>3.795600072642458e-05</v>
       </c>
       <c r="T13" t="n">
         <v>8.842107133824195</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[4.961788998384568, 12.722425269263821]</t>
+          <t>[4.963528228880179, 12.72068603876821]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.558425388350273e-05</v>
+        <v>3.534643081071209e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>3.558425388350273e-05</v>
+        <v>3.534643081071209e-05</v>
       </c>
       <c r="X13" t="n">
         <v>12.01925925925936</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.053773773773829</v>
+        <v>7.100180180180239</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.98474474474488</v>
+        <v>16.93833833833847</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.13738888573312735, 14.158475726222521]</t>
+          <t>[0.3464505138633882, 13.94941409809226]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.04585542571709822</v>
+        <v>0.03984844720044922</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04585542571709822</v>
+        <v>0.03984844720044922</v>
       </c>
       <c r="P14" t="n">
         <v>-2.918316298830158</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-4.26426390216993, -1.5723686954903862]</t>
+          <t>[-4.276842851733853, -1.5597897459264631]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>7.308351253820788e-05</v>
+        <v>8.319367536047118e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>7.308351253820788e-05</v>
+        <v>8.319367536047118e-05</v>
       </c>
       <c r="T14" t="n">
         <v>8.922599132881336</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.04691662613101, 12.798281639631663]</t>
+          <t>[5.049485672899616, 12.795712592863056]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.049324992820956e-05</v>
+        <v>3.018829993228778e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>3.049324992820956e-05</v>
+        <v>3.018829993228778e-05</v>
       </c>
       <c r="X14" t="n">
         <v>10.76628628628637</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.800800800800845</v>
+        <v>5.754394394394438</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.7317717717719</v>
+        <v>15.7781781781783</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.40094831572319656, 14.580738464470977]</t>
+          <t>[-0.472992414807063, 14.652782563554844]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.06300995703077539</v>
+        <v>0.06546473747323911</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06300995703077539</v>
+        <v>0.06546473747323911</v>
       </c>
       <c r="P15" t="n">
         <v>-2.578684660604234</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-4.163632305658545, -0.9937370155499234]</t>
+          <t>[-4.364895498681314, -0.792473822527155]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.002026225476385868</v>
+        <v>0.005635483429598853</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002026225476385868</v>
+        <v>0.005635483429598853</v>
       </c>
       <c r="T15" t="n">
         <v>8.802784575526116</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[4.907243905142381, 12.698325245909853]</t>
+          <t>[4.905275730579621, 12.700293420472612]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.03030264124471e-05</v>
+        <v>4.060519861237566e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>4.03030264124471e-05</v>
+        <v>4.060519861237566e-05</v>
       </c>
       <c r="X15" t="n">
         <v>9.513313313313388</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.66610610610613</v>
+        <v>2.923603603603627</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.36052052052064</v>
+        <v>16.10302302302315</v>
       </c>
     </row>
     <row r="16">
@@ -1803,51 +1803,51 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-0.9148310735711522, 15.15080318758469]</t>
+          <t>[-1.1531108877710832, 15.389083001784622]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.08104836228775358</v>
+        <v>0.08988906589524492</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08104836228775358</v>
+        <v>0.08988906589524492</v>
       </c>
       <c r="P16" t="n">
         <v>-2.553526761476388</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-4.666790288215469, -0.44026323473730766]</t>
+          <t>[-4.704527136907237, -0.4025263860455395]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0189789857997118</v>
+        <v>0.0210455464559054</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0189789857997118</v>
+        <v>0.0210455464559054</v>
       </c>
       <c r="T16" t="n">
         <v>9.925673930431657</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[5.646083839411561, 14.205264021451754]</t>
+          <t>[5.6453661665896355, 14.205981694273678]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.724371593543218e-05</v>
+        <v>2.731367131159068e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>2.724371593543218e-05</v>
+        <v>2.731367131159068e-05</v>
       </c>
       <c r="X16" t="n">
         <v>9.420500500500575</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.624224224224234</v>
+        <v>1.485005005005017</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.21677677677692</v>
+        <v>17.35599599599613</v>
       </c>
     </row>
     <row r="17">
@@ -1889,51 +1889,51 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-0.32203762813198544, 14.837280478088376]</t>
+          <t>[-0.14636136591463433, 14.661604215871025]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.06011214003125698</v>
+        <v>0.05450560627275869</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06011214003125698</v>
+        <v>0.05450560627275869</v>
       </c>
       <c r="P17" t="n">
         <v>-2.503210963220696</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-4.302000750861698, -0.7044211755796934]</t>
+          <t>[-4.063000709147159, -0.9434212172942318]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.007446785763799646</v>
+        <v>0.002300162176333664</v>
       </c>
       <c r="S17" t="n">
-        <v>0.007446785763799646</v>
+        <v>0.002300162176333664</v>
       </c>
       <c r="T17" t="n">
         <v>8.87891901071449</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[4.985857548427225, 12.771980473001756]</t>
+          <t>[4.988258656026425, 12.769579365402556]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.512096728908176e-05</v>
+        <v>3.47979568133816e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>3.512096728908176e-05</v>
+        <v>3.47979568133816e-05</v>
       </c>
       <c r="X17" t="n">
         <v>9.234874874874947</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.598758758758781</v>
+        <v>3.480480480480508</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.87099099099112</v>
+        <v>14.98926926926939</v>
       </c>
     </row>
   </sheetData>
